--- a/civic.xlsx
+++ b/civic.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarb\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A549D034-2EDD-4DC7-AE87-0C4BA9889A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1125" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1750,8 +1756,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1814,6 +1820,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1860,7 +1874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1892,9 +1906,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1926,6 +1958,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2101,2511 +2151,2819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A500"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4614,14 +4972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>

--- a/civic.xlsx
+++ b/civic.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevton\Music\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB0CE1-A5EA-41C1-82F0-79398419BF2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1746,12 +1752,15 @@
   <si>
     <t>Teste</t>
   </si>
+  <si>
+    <t>(ir)relevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,17 +1812,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1860,7 +1879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1892,9 +1911,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1926,6 +1963,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2101,2527 +2156,4030 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A500"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="J1" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="J142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="J143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="J144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="J151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="J154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="J164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="J165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="J168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="J170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="J171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="J172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="J173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="J174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="J175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="J177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="J178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="J179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="J180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="J181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="J182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="J183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="J184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="J185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="J186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="J187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="J188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="J189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="J190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="J191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="J192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="J193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="J194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="J195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="J196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="J197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="J198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="J199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="J200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="J201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="J202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="J203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="J204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="J205" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="J206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="J207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="J209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="J210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="J211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="J212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="J213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="J214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="J215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="J216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="J217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="J218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="J219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="J220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="J221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="J222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="J223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="J224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="J225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="J226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="J227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="J228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="J229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="J230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="J231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="J232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="J233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="J234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="J235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="J236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="J237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="J238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="J239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="J240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="J241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="J243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="J244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="J245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="J246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="J247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="J248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="J249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="J250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="J251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="J252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="J253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="J254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="J255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="J256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="J257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="J258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="J259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="J260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="J261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="J262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="J263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="J264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="J265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="J266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="J267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="J268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="J269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="J270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="J271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="J272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="J273" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="J274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="J275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="J276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="J277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="J278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="J279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="J280" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="J281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="J282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="J283" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="J284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="J285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="J286" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="J287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="J288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="J289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="J290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="J291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="J292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="J293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="J294" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="J295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="J296" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="J297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="J298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="J299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="J300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="J301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="J302" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="J303" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="J304" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="J305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="J306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="J307" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="J308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="J309" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="J310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="J311" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="J312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="J313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="J314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="J315" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="J316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="J317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="J318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="J319" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="J320" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="J321" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="J322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="J323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="J324" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="J325" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="J326" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="J327" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="J328" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="J329" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="J330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="J331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="J332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="J333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="J334" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="J335" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="J336" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="J337" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="J338" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="J339" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="J340" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="J341" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="J342" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="J343" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="J344" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="J345" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="J346" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="J347" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="J348" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="J349" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="J350" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="J351" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="J352" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="J353" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="J354" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="J355" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="J356" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="J357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="J358" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="J359" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="J360" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="J361" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="J362" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="J363" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="J364" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="J365" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="J366" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="J367" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="J368" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="J369" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="J370" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="J371" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="J372" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="J373" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="J374" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="J375" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="J376" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="J377" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="J378" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="J379" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="J380" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="J381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="J382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="J383" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="J384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="J385" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="J386" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="J387" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="J388" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="J389" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="J390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="J391" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="J392" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="J393" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="J394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="J395" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="J396" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="J397" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="J398" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="J399" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="J400" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="J401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="J402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="J403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="J404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="J405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="J406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="J407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="J408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="J409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="J410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="J411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="J412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="J413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="J414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="J415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="J416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="J417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="J418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="J419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="J420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="J421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="J422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="J423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="J424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="J425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="J426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="J427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="J428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="J429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="J430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="J431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="J432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="J433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="J434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="J435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="J436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="J437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="J438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="J439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="J440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="J441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="J442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="J443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="J444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="J445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="J446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="J447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="J448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="J449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="J450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="J451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="J452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="J453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="J454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="J455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="J456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="J457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="J458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="J459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="J460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="J461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="J462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="J463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="J464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="J465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="J466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="J467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="J468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="J469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="J470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="J471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="J472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="J473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="J474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="J475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="J476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="J477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="J478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="J479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="J480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="J481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="J482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="J483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="J484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="J485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="J486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="J487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="J488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="J489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="J490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="J491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="J492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="J493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="J494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="J495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="J496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="J497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="J498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="J499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>499</v>
       </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>

--- a/civic.xlsx
+++ b/civic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevton\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevton\Music\projeto-2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB0CE1-A5EA-41C1-82F0-79398419BF2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF726205-A821-4FB3-9007-75553CE98066}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="668">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1753,7 +1761,556 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>(ir)relevante</t>
+    <t>honda mexe pouco na décima geração do civic e perde chance de reforçar imagem do sedã com o pacote de segurança sensing na linha 2020
+https://t.co/8wctqbzw84</t>
+  </si>
+  <si>
+    <t>acabei de te ver no açaí power,tá dando role de nave em kkkk — civic do lucas ta uma nave mesmo credo https://t.co/tlfuoedlqj</t>
+  </si>
+  <si>
+    <t>toyota corolla e honda civic lideram lista dos médios mais vendidos no mundo https://t.co/nz7opu0ks5 https://t.co/rizsltofrv</t>
+  </si>
+  <si>
+    <t>@amiljp nois tem o civic, a hornet o cordão que reluz sorrrteee</t>
+  </si>
+  <si>
+    <t>crl veio um civic no uber mané kk</t>
+  </si>
+  <si>
+    <t>vou nadando pegar meu new civic https://t.co/oeqiioqb1a</t>
+  </si>
+  <si>
+    <t>tem um honda civic desses novo aqui na frente 
+carro feio da porra vontade de dar um chute</t>
+  </si>
+  <si>
+    <t>@florencioelisa o novo corolla por fora ficou bastante bonito, mas dentro em relação aos concorrentes e a própria versão antiga você não vê nada novo, fora que o design ficou feio. o civic tem freio de mão elétrico, ar condicionado dual zone, coisa que o novo corolla não tem</t>
+  </si>
+  <si>
+    <t>o novo civic é brabo demais, q isso</t>
+  </si>
+  <si>
+    <t>@yaanfeelipe seja feliz com o civic carai, porra de onix kkk se for pra pegar zero e não for kia/hyundai pela garantia nem vale a pena</t>
+  </si>
+  <si>
+    <t>n sei qq eu amo mais, esse corolla ou o civic tmnc</t>
+  </si>
+  <si>
+    <t>@anacastrooo20 se não fosse ontem ia ser hoje ana!
+não desanimes isto acontece! agora temos de o apoiar e ajudá-lo !</t>
+  </si>
+  <si>
+    <t>sonhei de novo com o civic que meu pai tinha ... como pode um carro mexer tanto comigo?! que saudade fdp daria tudo para o meu pai não ter dado pt nele</t>
+  </si>
+  <si>
+    <t>queria dizer aos cpx que tava de civic que era brincadeira só, os nego saindo pela janela do carro morfado kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@jdwsk concordo, não vejo diferença do hb20 para o onix, para o ford ka. honda civic e hyundais. porra cade o designer</t>
+  </si>
+  <si>
+    <t>@nono_pereiraa olha a tua quando eu te der! https://t.co/mg5nwe9j9j</t>
+  </si>
+  <si>
+    <t>@duduboby_ te deram multa? isso foi só por que um retardado de outro civic fez gracinha aí eles viram o seu e foram "conferir" se era você</t>
+  </si>
+  <si>
+    <t>o negócio é comprar um civic</t>
+  </si>
+  <si>
+    <t>buenosssssss diiiiiiiiiassss! vamo trabalhar que o projeto honda civic antes dos 30 nao pode esperar!</t>
+  </si>
+  <si>
+    <t>@ursinhacarina um honda civic de 2011 a 2500 por mês durante 10 anos sem juros?</t>
+  </si>
+  <si>
+    <t>@braz_vitor @juanvictor___ @imprev1sivel o civic vai ficar uma caxinha de fósforo</t>
+  </si>
+  <si>
+    <t>@allexjbr vende tudo e compra um civic</t>
+  </si>
+  <si>
+    <t>@nahcrvg98 @raizabastoss eu creio, tu com esse e eu de civic nave</t>
+  </si>
+  <si>
+    <t>gente eu iria ter o enorme prazer de morrer atropelada por um civic</t>
+  </si>
+  <si>
+    <t>honda civic 2013 automático ex coupe quemacocos tela clima bolsa de aire $178,000 https://t.co/4j1icnofnb</t>
+  </si>
+  <si>
+    <t>estudar pra ouvir di paullo e paulino no meu civic do ano</t>
+  </si>
+  <si>
+    <t>qual é a tua com o do civic? — ih, povo chato! isso não é da sua conta. 🙄 https://t.co/xdnncc9rn4</t>
+  </si>
+  <si>
+    <t>vídeo: honda civic si acelerando com escapamento direto | ronco espetacular https://t.co/em6uhyqcw2 https://t.co/bgugpeshcw</t>
+  </si>
+  <si>
+    <t>vídeo: civic si no brasil em 2018 https://t.co/xvbcuglb6q https://t.co/h1xsdhlyd9</t>
+  </si>
+  <si>
+    <t>comprei foi aqueles cheirinhos de carro e coloquei no guarda roupa, péssimo dono d casa foda se tá funcionando, agora minhas roupas tão cheirando só o novo civic 2019</t>
+  </si>
+  <si>
+    <t>q chique hoje ele tava no civic dele</t>
+  </si>
+  <si>
+    <t>era pra fotografar o bichim atrás de mim, mas ele mal apareceu! 😁 em civic square https://t.co/ed9ahpkn1u</t>
+  </si>
+  <si>
+    <t>af, o civic é tão lindo 😣</t>
+  </si>
+  <si>
+    <t>@liviafbosnic ele ta esperando oq? a chave de um honda civic?????????????</t>
+  </si>
+  <si>
+    <t>@legityme bora da rolê de civic kkkk</t>
+  </si>
+  <si>
+    <t>toyota corolla e honda civic lideram lista dos médios mais vendidos no mundo =&amp;gt; https://t.co/klwwahcblp | franquia autogarage =&amp;gt; https://t.co/pnnpjgi5c5 ! #autonews #noticiasautomotivas #classificadosautomotivos #anuncieseucarro #carrosavenda #vendadecarros #seminovos #carrossemi</t>
+  </si>
+  <si>
+    <t>civic maior aberração ja feita depois da lamborghini</t>
+  </si>
+  <si>
+    <t>@julhabanida diogo é igual sandro que dirige um civic e não liga o ar????</t>
+  </si>
+  <si>
+    <t>sério que o cara acha que só pq ele tem um civic eu vou entrar no carro dele?</t>
+  </si>
+  <si>
+    <t>o civic é mt lindo, vsf</t>
+  </si>
+  <si>
+    <t>@aka_civic a nostalgia é real demais</t>
+  </si>
+  <si>
+    <t>e o novo civic que tem entrada hdmi https://t.co/kjo2wxqfgh</t>
+  </si>
+  <si>
+    <t>quando eu tiver no meu civic https://t.co/tdxvnlhqvt</t>
+  </si>
+  <si>
+    <t>com o dinheiro disso compra um civic 2015 https://t.co/mbzvssgb4t</t>
+  </si>
+  <si>
+    <t>tomare que mês que vem já de pra arrumar o meu civic</t>
+  </si>
+  <si>
+    <t>@nono_pereiraa ri te anjoo é o melhor!</t>
+  </si>
+  <si>
+    <t>n posso ver meu tio consertando o civic que vou la aprender a mexer</t>
+  </si>
+  <si>
+    <t>@andrade_juliaa me dá um civic</t>
+  </si>
+  <si>
+    <t>@vt_silva_22 civic e mais brabo</t>
+  </si>
+  <si>
+    <t>@flaviogarage convenhamos que jetta é mais carro que corola e até civic.</t>
+  </si>
+  <si>
+    <t>celtinha dando benga no civic</t>
+  </si>
+  <si>
+    <t>mais cedo ela me viu passar com a tropa avistou nós de civic</t>
+  </si>
+  <si>
+    <t>@nono_pereiraa ri-te ri-te casos fazem casos pagam!</t>
+  </si>
+  <si>
+    <t>sis im a bisexual honda civic driver sksksksksksk https://t.co/j1i9rmxsyp</t>
+  </si>
+  <si>
+    <t>carro usado honda civic lxl aut. flex - 2010 - barra mansa/rj - ref:1941346 - r$ 39.900,00: vendo carro usado honda civic lxl aut. flex - 2010 - r$ 39.900,00 - barra mansa/rj - ref:1941346 https://t.co/akmesbozjp https://t.co/ennuvrecaj</t>
+  </si>
+  <si>
+    <t>carros de luxo aqui no acre é um civic kkkkk https://t.co/h2us4c1w5g</t>
+  </si>
+  <si>
+    <t>@math8r 1993 honda civic ex coupe manual, óbvio</t>
+  </si>
+  <si>
+    <t>@_victor_brito ae pdp tamo falando do civic kkkkkkkk achei que era o gol, mas é isso memo, o problema é que vai ta muito rodado</t>
+  </si>
+  <si>
+    <t>que tipo de carro você gosta mais? tipo new civic e corolla ou tipo golf e bravo? — nao sei sem associar nome de carro com o carro que dirá ter um que eu gosto mais https://t.co/rjtmncalmo</t>
+  </si>
+  <si>
+    <t>perdi o pique, esse ano vou só mudar a foto de perfil e colocar 1.9 porque eu já sou um civic</t>
+  </si>
+  <si>
+    <t>meu pai fica mto foda dentro desse civic meu deus
+pega logooo</t>
+  </si>
+  <si>
+    <t>a mitsubishi lançou a nova versão do lancer. buscando o visual “city” dos concorrentes, perdeu o visual esportivo e agressivo
+parece muito mais com um civic do que com o próprio lancer 😭
+nem sempre seguir “trends” é a solução. personalidade é o que faz você gostar de um carro https://t.co/jo88oy9m3k</t>
+  </si>
+  <si>
+    <t>meu sonho um civic 2020 na minha garagem</t>
+  </si>
+  <si>
+    <t>@lucieleob1 minha humildade tá lá no teto do civic</t>
+  </si>
+  <si>
+    <t>@carolfavoretti_ vai me levar de civic ou de creta?</t>
+  </si>
+  <si>
+    <t>"último civic nation da história"
+graças ao bom deus</t>
+  </si>
+  <si>
+    <t>povo da una que colocar um civic onde não cabe um fusquinha uai</t>
+  </si>
+  <si>
+    <t>o honda civic 2020 está simplesmente lindo como de costume, putz</t>
+  </si>
+  <si>
+    <t>civic é um civic</t>
+  </si>
+  <si>
+    <t>nao vai ter eu ganhando meu honda civic type-r https://t.co/x6mpeun7xx</t>
+  </si>
+  <si>
+    <t>civic 97 entra na garagem no verão  
+ se n me verem nas férias é pq vo ta
+trabalhando q nem loko pra deixar a princesa pronta🔥👾🔥 https://t.co/ujd6yy7o43</t>
+  </si>
+  <si>
+    <t>namoral eu quero o novo civic que nave amigos que nave</t>
+  </si>
+  <si>
+    <t>o cara veio lá de sobradinho ver essa bosta desse civic kkkkkkkk tô c pena dele</t>
+  </si>
+  <si>
+    <t>@gabirelafiorini @rabelorebecca ok quero roubar um porshe e um honda civic</t>
+  </si>
+  <si>
+    <t>muito meu sonho ter um civic si vermelho</t>
+  </si>
+  <si>
+    <t>@o_antagonista eu compro, salles. aceita um civic?</t>
+  </si>
+  <si>
+    <t>liked on youtube: este civic 2001 tem apenas 35 mil km (e veja por que ele atendeu ao recall dos air bags!) https://t.co/xibmktdzy3</t>
+  </si>
+  <si>
+    <t>auge são nove pessoas dentro de um civic</t>
+  </si>
+  <si>
+    <t>tem coisas que só acontecem nos rolês com o @pedrohsfp, só nesse find vimos:
+- um mendigo chamando o var na cb
+- um cara carregando um para-choque de um civic as 3 da manhã no centro de viamão</t>
+  </si>
+  <si>
+    <t>sair com você na madrugada já me recordei a gata do civic prata que me ligou e perguntou como que eu tava que sonha comigo todo dia apaixonada disse que tô suave, tô indo ver a cunhada não quero bo, não quero vt na quebrada fuga na patrícia de teneré sem placa</t>
+  </si>
+  <si>
+    <t>@oswaldo_desouza não, nada vê kkkkk 
+até ano passado eu tava de olho num civic 2011, comoassim kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@luuegashira mas tem o a1 e a a200 tbm... foda é manutenção etc que eu acredito que do civic seja mais fácil kkk</t>
+  </si>
+  <si>
+    <t>momento merchan: 😅
+.
+vendo new civic completo mais acessórios. 🚗🎰💰
+.
+.
+interessados chamem inbox, por favor! 📬
+.
+:
+.
+:
+.
+#carro #venda #sell #vendadecarro #vendo #newcivic #civic #lxs #vendocarro #oportunidade… https://t.co/vhqvhxeauw</t>
+  </si>
+  <si>
+    <t>@_teixeiraisaa @domingos_gu c já vendeu o civic?</t>
+  </si>
+  <si>
+    <t>ces já pararam pra pensar que o “new civic” é velho?</t>
+  </si>
+  <si>
+    <t>@gioribeirom os jovens só querem seus civic’s</t>
+  </si>
+  <si>
+    <t>ter um honda civic só pra colocar 160 na dutra 🚗⚡ 😁</t>
+  </si>
+  <si>
+    <t>hoje o dia está me a correr mesmo bem!!
+só boas noticias!</t>
+  </si>
+  <si>
+    <t>civic na pista hoje só empurrando troço 🚀🥵</t>
+  </si>
+  <si>
+    <t>honda civic lx é um sonho pqp fico babando td vez q vejo</t>
+  </si>
+  <si>
+    <t>civic prata&amp;gt;&amp;gt;&amp;gt;dunada mixtape é tipo um grito! um suspiro algo do tipo eu agradeço todos os dias por isso é uma estética que my bro sustentou pós the vision</t>
+  </si>
+  <si>
+    <t>que economia é essa? há 10 anos atrás um civic custava 70 mil. hoje ele custa 100 mil. inflação? isso é um absurdo!...</t>
+  </si>
+  <si>
+    <t>o auge foi vim pra unoesc salvar a vida de duas mina de civic</t>
+  </si>
+  <si>
+    <t>mas segundo a família do meu tio rico: “crise onde? a economia melhorou muito, só hoje aqui no lançamento do novo honda civic já venderam 140 carros”
+ah, incapacidade do homem de olhar além do próprio umbigo....... https://t.co/cn1vfvfmek</t>
+  </si>
+  <si>
+    <t>espero que tenha gostado do texto..</t>
+  </si>
+  <si>
+    <t>honda new civic 2014 - para retirada de peças
+whatsapp: (11) 99725-1741
+telefone: (11) 3901-7650
+ #honda #hondacivic #autopecas#honda2015 #mecanicaautomotiva #funilaria #funilariaepintura #detransp #motorsport em… https://t.co/dxxgd9dfjl</t>
+  </si>
+  <si>
+    <t>@sapataoalfa por enquanto, só o civic msm...vamos ver</t>
+  </si>
+  <si>
+    <t>@gvpaixao12 ce tá doido, eu compro um civic 2018</t>
+  </si>
+  <si>
+    <t>sabe oq me faria melhor? um honda civic 2019 preto na minha garagem</t>
+  </si>
+  <si>
+    <t>@migueloribes sério kkkk era até um civic e o guri tava de capuz</t>
+  </si>
+  <si>
+    <t>fui dirigir um honda civic pqp da não, não sei dirigir carro pequeno 🤦🏽‍♀️</t>
+  </si>
+  <si>
+    <t>não sei pego um golf ou um civic baaa</t>
+  </si>
+  <si>
+    <t>porque corolla e civic vendem tanto os outros são porcarias https://t.co/hhmhz1nkpj</t>
+  </si>
+  <si>
+    <t>honda civic type r fk8 é o carro mais lindo que já vi na puta da vida</t>
+  </si>
+  <si>
+    <t>como diz meu vô: meu primeiro carro foi um fusca, e você aí andando de civic, cada um tem oque merece né 😂</t>
+  </si>
+  <si>
+    <t>juntar um dinheiro pra comprar um civic 2007 nos próximos anos</t>
+  </si>
+  <si>
+    <t>painho mandou eu ir guarda o xodó dele que é o civic aí a peste do carro que anuncia o circo apitando, eu pensei que era a polícia e encostei o carro kkkkkkkjj</t>
+  </si>
+  <si>
+    <t>@riodenojeira já ouvi falar que coçava com moto, honda civic, toyota hilux, cordão de ouro, tatuagem no braço e com as contas de luz e internet paga. mas com tiro é a primeira vez. 😂😂😂</t>
+  </si>
+  <si>
+    <t>que sedã que é? corolla, civic, cruze https://t.co/gmzlqk2hle</t>
+  </si>
+  <si>
+    <t>@winymachado exatamente, tinha um filho da puta em um civic dando cavalinho de pau perto do olho vivo. não deu muita pq eu está estacionado.</t>
+  </si>
+  <si>
+    <t>civic g10 e mt trem tnc carro lindo do crl</t>
+  </si>
+  <si>
+    <t>📍civic lxr 2.0 aut. 2014📍 
+✅ 77.000km 
+✅ garantia de 1 ano de motor e cambio
+✅ laudo cautelar aprovado
+✅ novissimo ⭐️⭐️⭐️⭐️⭐️ 
+💰r$ 57.900,00
+venha nos fazer uma visita, ou agende um horário.
+bruno paolone
+11… https://t.co/lv3bz1mopj</t>
+  </si>
+  <si>
+    <t>@yaanfeelipe a200 sou completamente leigo sobre mas de fato, entre a1 e civic, nesse quesito vai pro civic
+mas ele bebe bem mais que a1, tanto cidade quanto estrada a diferença é considerável</t>
+  </si>
+  <si>
+    <t>@fpcoliveira cívic então 2017 então</t>
+  </si>
+  <si>
+    <t>a honda quando fez o civic olhou e pensou: “vou fuder esses tuneiro com 47 milhões de parafusos e presilhas”</t>
+  </si>
+  <si>
+    <t>ontem dirigi captiva e civic, que carros meus amigos...</t>
+  </si>
+  <si>
+    <t>o que mudou no honda civic 2020 https://t.co/wmko5usidc via @youtube</t>
+  </si>
+  <si>
+    <t>@wictorfonseca kkkkkkkkkk ceis vao ver um civic com um motor de lamborghini, joga eu na pistaaaa</t>
+  </si>
+  <si>
+    <t>fui ver o lançamento do honda civic 2020 passei foi mal, passei mais mal ainda com o preço</t>
+  </si>
+  <si>
+    <t>@lucieleob1 melhor um civic doq um fusca skskssksk</t>
+  </si>
+  <si>
+    <t>@luuegashira to olhando com carinho... ta foda decidir! kkk quero um 17 pelo menos, tem ate civic geração 10 nessa faixa do onix 0km kkkk</t>
+  </si>
+  <si>
+    <t>troco honda civic 2008 por 2 ingressos da final, volto 1 coca gelada</t>
+  </si>
+  <si>
+    <t>honda civic 2019 - novidades, preços e nova cor - https://t.co/fry8tzqw3s</t>
+  </si>
+  <si>
+    <t>guardei a moto é peguei o honda civic 🤪</t>
+  </si>
+  <si>
+    <t>@agaybes corolla e civic a cada ano brigando p ser o carro mais bonito do ano afu queria ter dinheiro o comprar um pelo menos 😓</t>
+  </si>
+  <si>
+    <t>cheguei no encontro de honda civic acelerando meu old v6 supercharger 😎 os hondeiro ficou numa cara de bunda kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@nogueirazzz @david_caleiro a pergunta era carros que gostava de ter, não carros “baratos” que gostava de ter. mas se assim for, um r34, um civic type r, um e46, um focus rs e um la ferrari 😂</t>
+  </si>
+  <si>
+    <t>@rmpoficial ex rico, quer andar de marea 2002, civic 95, achando q tá abafando c/ nenê, ganso. o fluminense é institucionalmente pequeno! seu presidente faz declarações esdrúxulas sobre rebaixamento. o outro estoura 🍾, torcida comemora decisão do stjd. qdo vão pg as 3 séries b q devem? https://t.co/cjpyq648nq</t>
+  </si>
+  <si>
+    <t>@_be1mart desculpa aí meu civic si</t>
+  </si>
+  <si>
+    <t>@eaifeu com 48 mil na mão eu não compro ônix nem a pau! sou mais comprar um civic 2016. eu acho que dá com esse valor aí</t>
+  </si>
+  <si>
+    <t>eita porra, se pa vai rolar o civic si em</t>
+  </si>
+  <si>
+    <t>vendo valor a combinar ou troco em carro do meu interesse!
+honda civic 2008 1.8 banco de couro carro filé pegar e rodar...
+mais detalhes entrar em contato com kleber no telefone( 031)99888-2186</t>
+  </si>
+  <si>
+    <t>♫allah, allah, allah, allah will pray for you ♫
+hey!
+dia 14 de setembro de 1980 o queen fazia seu primeiro show em st. paul, minnesota, no civic centre, para um público de 16.000 pessoas.
+cerca de 25 minutos de… https://t.co/aqirbbwey6</t>
+  </si>
+  <si>
+    <t>sexta feira 13
+desespero no curso
+fome de leão e meu tênis tá sujo
+cama arrumada e mãe dela de civic 
+boa noite</t>
+  </si>
+  <si>
+    <t>@ingidish sou doido com um civic si</t>
+  </si>
+  <si>
+    <t>@magalhaes81 @_ofwolfandwoman @aquilespintopt @anniething__ se tivesses um honda civic de 91, daria bastante jeito.</t>
+  </si>
+  <si>
+    <t>a leonor nunca mais acorda 😕</t>
+  </si>
+  <si>
+    <t>civic é sem noção de lindo</t>
+  </si>
+  <si>
+    <t>civic realmente excelente pra isso https://t.co/6vopa0uqvg</t>
+  </si>
+  <si>
+    <t>toyota corolla e honda civic lideram lista dos médios mais vendidos no mundo https://t.co/qjlhgb36se</t>
+  </si>
+  <si>
+    <t>@crfjeank queria um civic mas n sou rico igual uns kuster ai</t>
+  </si>
+  <si>
+    <t>o eugene tem um honda civic e o meu pai tbm serase isso é o suficiente pra eu começar a chamar ele de daddy???</t>
+  </si>
+  <si>
+    <t>apenas relembrando que o civic do robbie ferreira vai ser amarelo 💛💛💛</t>
+  </si>
+  <si>
+    <t>@_vickcristine @thithiprado qro participa vó de civic</t>
+  </si>
+  <si>
+    <t>mano pilotei meu primeiro civic 
+uma maaaaquina</t>
+  </si>
+  <si>
+    <t>vou comprar um civic 2002 e brincar de need for speed na vida real, e vcs vão acompanhar aqui e no meu instagram</t>
+  </si>
+  <si>
+    <t>levaram meu honda civic mais com muita fé em deus segunda feira ele já ta na rua, documento pago e tudo mais...</t>
+  </si>
+  <si>
+    <t>vai me levar dar uma voltinha de civic? — só levo minha namorada https://t.co/67bayljh8v</t>
+  </si>
+  <si>
+    <t>que tipo de carro você gosta mais? tipo new civic e corolla ou tipo golf e bravo? — um que ande! eu não sei nada de carro... só sei diferença de carro grande, carro pequeno, peugeot, uno e fusca. https://t.co/kiconkz6an</t>
+  </si>
+  <si>
+    <t>teste: honda civic turbo encanta, mas erra ao descartar tecnologias semiautônomas https://t.co/pwrv6ibo80 https://t.co/kactorpnhj</t>
+  </si>
+  <si>
+    <t>tem um cliente aqui na loja comprou a hr-v e ainda comprou o honda civic</t>
+  </si>
+  <si>
+    <t>será q eu compro esse civic</t>
+  </si>
+  <si>
+    <t>meu pai ama mais o civic dele q eu... tá tristao pq bateu ele</t>
+  </si>
+  <si>
+    <t>nss td que eu + queria era um civic</t>
+  </si>
+  <si>
+    <t>@estadao @mcclarinhaplay espero que seja tudo civic</t>
+  </si>
+  <si>
+    <t>@nono_pereiraa pensa um bocado anjo e sbs</t>
+  </si>
+  <si>
+    <t>trabalhar pra ter meu civic e na carretinha uma carenada qualquer</t>
+  </si>
+  <si>
+    <t>@luuegashira a200 é 1.6 turbo, deve fazer quase a mesma coisa que o a1, o civic 2.0 bebe p carrrralho... mas questão de desvalorização e peças etc ele tem vantagem</t>
+  </si>
+  <si>
+    <t>civic é um carro tão foda</t>
+  </si>
+  <si>
+    <t>quanto vale seu honda civic equipado na garagem do seu advogado(?)</t>
+  </si>
+  <si>
+    <t>civic e mt lindo af</t>
+  </si>
+  <si>
+    <t>bomba de combustível do honda civic 2000 1.6 16 v automático https://t.co/z2zuh4dwfv via @youtube         prender coifa da abraçadeira enforca gato de aço https://t.co/m97zfjoaca via @youtube   chega de enforca gato de plástico e coifas rasgadas!!!
+#ensinandocoisaaúteis</t>
+  </si>
+  <si>
+    <t>ei, você que é dono de um civic! 
+que tal equipar seu carro com acessórios especiais e únicos? preparamos kits promocionais por um preço imbatível.
+dê uma passada na shori mais perto de você ou entre em contato via whatsapp: https://t.co/xsm6l4wcn7. #kitscivic2020 https://t.co/9ejnakuh46</t>
+  </si>
+  <si>
+    <t>meu livro preferido!!?? 👆
+manual new civic 2015 xre</t>
+  </si>
+  <si>
+    <t>civic vai tá na pista hoje</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>ta loco viado vo de civic</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +2369,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,7 +2395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2157,83 +2715,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J500"/>
+  <dimension ref="A1:J751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="B752" sqref="B752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="132.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>501</v>
-      </c>
+      <c r="B1" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="B3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="B4" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="B6" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="B7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="B8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2241,47 +2804,47 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="B10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="B11" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="B12" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="B13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="B14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="J15">
+      <c r="B15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2289,3871 +2852,4172 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="J22">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="J47">
+      <c r="B47" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="J55">
+      <c r="B55" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="J62">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="J78">
+      <c r="B78" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="J87">
+      <c r="B87" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="J96">
-        <v>0</v>
+      <c r="B96" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="J97">
-        <v>0</v>
+      <c r="B97" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="J98">
-        <v>0</v>
+      <c r="B98" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="J99">
-        <v>1</v>
+      <c r="B99" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
+      <c r="B100" s="4">
+        <v>2</v>
+      </c>
+      <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
+      <c r="B101" s="4">
+        <v>2</v>
+      </c>
+      <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
+      <c r="B102" s="4">
+        <v>2</v>
+      </c>
+      <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="J103" s="2">
-        <v>0</v>
-      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
+      <c r="B104" s="4">
+        <v>2</v>
+      </c>
+      <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+      <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
+      <c r="B106" s="4">
+        <v>2</v>
+      </c>
+      <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="J107" s="2">
-        <v>0</v>
-      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="J108" s="2">
-        <v>0</v>
-      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
+      <c r="B109" s="4">
+        <v>2</v>
+      </c>
+      <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="J110" s="2">
-        <v>0</v>
-      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="J111" s="2">
-        <v>1</v>
-      </c>
+      <c r="B111" s="4">
+        <v>2</v>
+      </c>
+      <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
+      <c r="B112" s="4">
+        <v>2</v>
+      </c>
+      <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="J113" s="2">
-        <v>1</v>
-      </c>
+      <c r="B113" s="4">
+        <v>2</v>
+      </c>
+      <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
+      <c r="B114" s="4">
+        <v>2</v>
+      </c>
+      <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="J115" s="2">
-        <v>0</v>
-      </c>
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="J116" s="2">
-        <v>0</v>
-      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="J117" s="2">
-        <v>0</v>
-      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="J118" s="2">
-        <v>0</v>
-      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
+      <c r="B119" s="4">
+        <v>2</v>
+      </c>
+      <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
+      <c r="B120" s="4">
+        <v>2</v>
+      </c>
+      <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
+      <c r="B121" s="4">
+        <v>2</v>
+      </c>
+      <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="J122" s="2">
-        <v>1</v>
-      </c>
+      <c r="B122" s="4">
+        <v>2</v>
+      </c>
+      <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
+      <c r="B123" s="4">
+        <v>2</v>
+      </c>
+      <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
+      <c r="B124" s="4">
+        <v>2</v>
+      </c>
+      <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="J125" s="2">
-        <v>0</v>
-      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="J126" s="2">
-        <v>1</v>
-      </c>
+      <c r="B126" s="4">
+        <v>2</v>
+      </c>
+      <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
+      <c r="B127" s="4">
+        <v>2</v>
+      </c>
+      <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="J128" s="2">
-        <v>0</v>
-      </c>
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="J129" s="2">
-        <v>0</v>
-      </c>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="J130" s="2">
-        <v>0</v>
-      </c>
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="J131" s="2">
-        <v>0</v>
-      </c>
+      <c r="B131" s="4">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="J132" s="2">
-        <v>0</v>
-      </c>
+      <c r="B132" s="4">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="J133" s="2">
-        <v>0</v>
-      </c>
+      <c r="B133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="J134" s="2">
-        <v>0</v>
-      </c>
+      <c r="B134" s="4">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="J135" s="2">
-        <v>1</v>
-      </c>
+      <c r="B135" s="4">
+        <v>2</v>
+      </c>
+      <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="J136" s="2">
-        <v>1</v>
-      </c>
+      <c r="B136" s="4">
+        <v>2</v>
+      </c>
+      <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="J137" s="2">
+      <c r="B137" s="4">
         <v>0</v>
       </c>
+      <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="J138" s="2">
-        <v>1</v>
-      </c>
+      <c r="B138" s="4">
+        <v>2</v>
+      </c>
+      <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="J139" s="2">
+      <c r="B139" s="4">
         <v>0</v>
       </c>
+      <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="J140" s="2">
-        <v>0</v>
-      </c>
+      <c r="B140" s="4">
+        <v>1</v>
+      </c>
+      <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="J141" s="2">
-        <v>0</v>
-      </c>
+      <c r="B141" s="4">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="J142" s="2">
-        <v>1</v>
-      </c>
+      <c r="B142" s="4">
+        <v>2</v>
+      </c>
+      <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="J143" s="2">
-        <v>1</v>
-      </c>
+      <c r="B143" s="4">
+        <v>2</v>
+      </c>
+      <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="J144" s="2">
-        <v>1</v>
-      </c>
+      <c r="B144" s="4">
+        <v>2</v>
+      </c>
+      <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="J145" s="2">
-        <v>1</v>
-      </c>
+      <c r="B145" s="4">
+        <v>2</v>
+      </c>
+      <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="J146" s="2">
-        <v>0</v>
-      </c>
+      <c r="B146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="J147" s="2">
-        <v>0</v>
-      </c>
+      <c r="B147" s="4">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="J148" s="2">
-        <v>0</v>
-      </c>
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="J149" s="2">
-        <v>0</v>
-      </c>
+      <c r="B149" s="4">
+        <v>1</v>
+      </c>
+      <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="J150" s="2">
-        <v>0</v>
-      </c>
+      <c r="B150" s="4">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="J151" s="2">
-        <v>1</v>
-      </c>
+      <c r="B151" s="4">
+        <v>2</v>
+      </c>
+      <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="J152" s="2">
+      <c r="B152" s="4">
         <v>0</v>
       </c>
+      <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="J153" s="2">
-        <v>0</v>
-      </c>
+      <c r="B153" s="4">
+        <v>1</v>
+      </c>
+      <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="J154" s="2">
-        <v>1</v>
-      </c>
+      <c r="B154" s="4">
+        <v>2</v>
+      </c>
+      <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="J155" s="2">
-        <v>0</v>
-      </c>
+      <c r="B155" s="4">
+        <v>1</v>
+      </c>
+      <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="J156" s="2">
-        <v>1</v>
-      </c>
+      <c r="B156" s="4">
+        <v>2</v>
+      </c>
+      <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="J157" s="2">
-        <v>1</v>
-      </c>
+      <c r="B157" s="4">
+        <v>2</v>
+      </c>
+      <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="J158" s="2">
-        <v>1</v>
-      </c>
+      <c r="B158" s="4">
+        <v>2</v>
+      </c>
+      <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="J159" s="2">
-        <v>0</v>
-      </c>
+      <c r="B159" s="4">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="J160" s="2">
-        <v>0</v>
-      </c>
+      <c r="B160" s="4">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="J161" s="2">
-        <v>0</v>
-      </c>
+      <c r="B161" s="4">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="J162" s="2">
-        <v>0</v>
-      </c>
+      <c r="B162" s="4">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="J163" s="2">
-        <v>0</v>
-      </c>
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="J164" s="2">
-        <v>0</v>
-      </c>
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+      <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="J165" s="2">
-        <v>1</v>
-      </c>
+      <c r="B165" s="4">
+        <v>2</v>
+      </c>
+      <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="J166" s="2">
+      <c r="B166" s="4">
         <v>0</v>
       </c>
+      <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="J167" s="2">
-        <v>0</v>
-      </c>
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+      <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="J168" s="2">
-        <v>0</v>
-      </c>
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="J169" s="2">
-        <v>0</v>
-      </c>
+      <c r="B169" s="4">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="J170" s="2">
-        <v>1</v>
-      </c>
+      <c r="B170" s="4">
+        <v>2</v>
+      </c>
+      <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="J171" s="2">
-        <v>0</v>
-      </c>
+      <c r="B171" s="4">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="J172" s="2">
-        <v>0</v>
-      </c>
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="J173" s="2">
-        <v>1</v>
-      </c>
+      <c r="B173" s="4">
+        <v>2</v>
+      </c>
+      <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="J174" s="2">
-        <v>0</v>
-      </c>
+      <c r="B174" s="4">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="J175" s="2">
-        <v>1</v>
-      </c>
+      <c r="B175" s="4">
+        <v>2</v>
+      </c>
+      <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="J176" s="2">
-        <v>1</v>
-      </c>
+      <c r="B176" s="4">
+        <v>2</v>
+      </c>
+      <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="J177" s="2">
-        <v>1</v>
-      </c>
+      <c r="B177" s="4">
+        <v>2</v>
+      </c>
+      <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="J178" s="2">
-        <v>1</v>
-      </c>
+      <c r="B178" s="4">
+        <v>2</v>
+      </c>
+      <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="J179" s="2">
-        <v>0</v>
-      </c>
+      <c r="B179" s="4">
+        <v>1</v>
+      </c>
+      <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="J180" s="2">
-        <v>1</v>
-      </c>
+      <c r="B180" s="4">
+        <v>2</v>
+      </c>
+      <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="J181" s="2">
-        <v>0</v>
-      </c>
+      <c r="B181" s="4">
+        <v>1</v>
+      </c>
+      <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="J182" s="2">
-        <v>0</v>
-      </c>
+      <c r="B182" s="4">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="J183" s="2">
-        <v>0</v>
-      </c>
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+      <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="J184" s="2">
-        <v>1</v>
-      </c>
+      <c r="B184" s="4">
+        <v>2</v>
+      </c>
+      <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="J185" s="2">
-        <v>0</v>
-      </c>
+      <c r="B185" s="4">
+        <v>1</v>
+      </c>
+      <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="J186" s="2">
-        <v>0</v>
-      </c>
+      <c r="B186" s="4">
+        <v>1</v>
+      </c>
+      <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="J187" s="2">
-        <v>0</v>
-      </c>
+      <c r="B187" s="4">
+        <v>1</v>
+      </c>
+      <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="J188" s="2">
-        <v>0</v>
-      </c>
+      <c r="B188" s="4">
+        <v>1</v>
+      </c>
+      <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="J189" s="2">
+      <c r="B189" s="4">
         <v>0</v>
       </c>
+      <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="J190" s="2">
-        <v>1</v>
-      </c>
+      <c r="B190" s="4">
+        <v>2</v>
+      </c>
+      <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="J191" s="2">
-        <v>0</v>
-      </c>
+      <c r="B191" s="4">
+        <v>1</v>
+      </c>
+      <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="J192" s="2">
-        <v>0</v>
-      </c>
+      <c r="B192" s="4">
+        <v>1</v>
+      </c>
+      <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="J193" s="2">
-        <v>0</v>
-      </c>
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
+      <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="J194" s="2">
-        <v>0</v>
-      </c>
+      <c r="B194" s="4">
+        <v>1</v>
+      </c>
+      <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="J195" s="2">
-        <v>0</v>
-      </c>
+      <c r="B195" s="4">
+        <v>1</v>
+      </c>
+      <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="J196" s="2">
-        <v>0</v>
-      </c>
+      <c r="B196" s="4">
+        <v>1</v>
+      </c>
+      <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="J197" s="2">
-        <v>1</v>
-      </c>
+      <c r="B197" s="4">
+        <v>2</v>
+      </c>
+      <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="J198" s="2">
-        <v>0</v>
-      </c>
+      <c r="B198" s="4">
+        <v>1</v>
+      </c>
+      <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="J199" s="2">
-        <v>0</v>
-      </c>
+      <c r="B199" s="4">
+        <v>1</v>
+      </c>
+      <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="J200" s="2">
-        <v>0</v>
-      </c>
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
+      <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="J201" s="2">
-        <v>0</v>
-      </c>
+      <c r="B201" s="4">
+        <v>1</v>
+      </c>
+      <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="J202" s="2">
-        <v>0</v>
-      </c>
+      <c r="B202" s="4">
+        <v>1</v>
+      </c>
+      <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="J203" s="2">
-        <v>0</v>
-      </c>
+      <c r="B203" s="4">
+        <v>1</v>
+      </c>
+      <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="J204" s="2">
-        <v>0</v>
-      </c>
+      <c r="B204" s="4">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="J205" s="2">
-        <v>1</v>
-      </c>
+      <c r="B205" s="4">
+        <v>2</v>
+      </c>
+      <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="J206" s="2">
-        <v>0</v>
-      </c>
+      <c r="B206" s="4">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="J207" s="2">
-        <v>0</v>
-      </c>
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="J208" s="2">
-        <v>0</v>
-      </c>
+      <c r="B208" s="4">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="J209" s="2">
-        <v>0</v>
-      </c>
+      <c r="B209" s="4">
+        <v>1</v>
+      </c>
+      <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="J210" s="2">
-        <v>0</v>
-      </c>
+      <c r="B210" s="4">
+        <v>1</v>
+      </c>
+      <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="J211" s="2">
-        <v>0</v>
-      </c>
+      <c r="B211" s="4">
+        <v>1</v>
+      </c>
+      <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="J212" s="2">
-        <v>0</v>
-      </c>
+      <c r="B212" s="4">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="J213" s="2">
-        <v>1</v>
-      </c>
+      <c r="B213" s="4">
+        <v>2</v>
+      </c>
+      <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="J214" s="2">
-        <v>0</v>
-      </c>
+      <c r="B214" s="4">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="J215" s="2">
-        <v>1</v>
-      </c>
+      <c r="B215" s="4">
+        <v>2</v>
+      </c>
+      <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="J216" s="2">
-        <v>0</v>
-      </c>
+      <c r="B216" s="4">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="J217" s="2">
-        <v>0</v>
-      </c>
+      <c r="B217" s="4">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="J218" s="2">
-        <v>0</v>
-      </c>
+      <c r="B218" s="4">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="J219" s="2">
-        <v>0</v>
-      </c>
+      <c r="B219" s="4">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="J220" s="2">
-        <v>1</v>
-      </c>
+      <c r="B220" s="4">
+        <v>2</v>
+      </c>
+      <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="J221" s="2">
-        <v>0</v>
-      </c>
+      <c r="B221" s="4">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="J222" s="2">
-        <v>0</v>
-      </c>
+      <c r="B222" s="4">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="J223" s="2">
-        <v>1</v>
-      </c>
+      <c r="B223" s="4">
+        <v>2</v>
+      </c>
+      <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="J224" s="2">
-        <v>0</v>
-      </c>
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="J225" s="2">
-        <v>1</v>
-      </c>
+      <c r="B225" s="4">
+        <v>2</v>
+      </c>
+      <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="J226" s="2">
-        <v>1</v>
-      </c>
+      <c r="B226" s="4">
+        <v>2</v>
+      </c>
+      <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="J227" s="2">
-        <v>0</v>
-      </c>
+      <c r="B227" s="4">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="J228" s="2">
-        <v>0</v>
-      </c>
+      <c r="B228" s="4">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="J229" s="2">
-        <v>0</v>
-      </c>
+      <c r="B229" s="4">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="J230" s="2">
-        <v>0</v>
-      </c>
+      <c r="B230" s="4">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="J231" s="2">
-        <v>0</v>
-      </c>
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="J232" s="2">
-        <v>0</v>
-      </c>
+      <c r="B232" s="4">
+        <v>1</v>
+      </c>
+      <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="J233" s="2">
-        <v>0</v>
-      </c>
+      <c r="B233" s="4">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="J234" s="2">
-        <v>0</v>
-      </c>
+      <c r="B234" s="4">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="J235" s="2">
-        <v>0</v>
-      </c>
+      <c r="B235" s="4">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="J236" s="2">
-        <v>0</v>
-      </c>
+      <c r="B236" s="4">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="J237" s="2">
-        <v>0</v>
-      </c>
+      <c r="B237" s="4">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="J238" s="2">
-        <v>0</v>
-      </c>
+      <c r="B238" s="4">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="J239" s="2">
-        <v>0</v>
-      </c>
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="J240" s="2">
-        <v>0</v>
-      </c>
+      <c r="B240" s="4">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="J241" s="2">
-        <v>0</v>
-      </c>
+      <c r="B241" s="4">
+        <v>1</v>
+      </c>
+      <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="J242" s="2">
-        <v>0</v>
-      </c>
+      <c r="B242" s="4">
+        <v>1</v>
+      </c>
+      <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="J243" s="2">
-        <v>0</v>
-      </c>
+      <c r="B243" s="4">
+        <v>1</v>
+      </c>
+      <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="J244" s="2">
-        <v>1</v>
-      </c>
+      <c r="B244" s="4">
+        <v>2</v>
+      </c>
+      <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="J245" s="2">
-        <v>1</v>
-      </c>
+      <c r="B245" s="4">
+        <v>2</v>
+      </c>
+      <c r="J245" s="2"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="J246" s="2">
-        <v>1</v>
-      </c>
+      <c r="B246" s="4">
+        <v>2</v>
+      </c>
+      <c r="J246" s="2"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="J247" s="2">
-        <v>0</v>
-      </c>
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+      <c r="J247" s="2"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="J248" s="2">
-        <v>1</v>
-      </c>
+      <c r="B248" s="4">
+        <v>2</v>
+      </c>
+      <c r="J248" s="2"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="J249" s="2">
-        <v>0</v>
-      </c>
+      <c r="B249" s="4">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="J250" s="2">
-        <v>0</v>
-      </c>
+      <c r="B250" s="4">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="J251" s="2">
-        <v>0</v>
-      </c>
+      <c r="B251" s="4">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="J252" s="2">
-        <v>0</v>
-      </c>
+      <c r="B252" s="4">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="J253" s="2">
-        <v>0</v>
-      </c>
+      <c r="B253" s="4">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="J254" s="2">
-        <v>1</v>
-      </c>
+      <c r="B254" s="4">
+        <v>2</v>
+      </c>
+      <c r="J254" s="2"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="J255" s="2">
-        <v>0</v>
-      </c>
+      <c r="B255" s="4">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="J256" s="2">
-        <v>0</v>
-      </c>
+      <c r="B256" s="4">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="J257" s="2">
-        <v>0</v>
-      </c>
+      <c r="B257" s="4">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="J258" s="2">
-        <v>0</v>
-      </c>
+      <c r="B258" s="4">
+        <v>1</v>
+      </c>
+      <c r="J258" s="2"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="J259" s="2">
-        <v>1</v>
-      </c>
+      <c r="B259" s="4">
+        <v>2</v>
+      </c>
+      <c r="J259" s="2"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="J260" s="2">
-        <v>0</v>
-      </c>
+      <c r="B260" s="4">
+        <v>1</v>
+      </c>
+      <c r="J260" s="2"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="J261" s="2">
-        <v>1</v>
-      </c>
+      <c r="B261" s="4">
+        <v>2</v>
+      </c>
+      <c r="J261" s="2"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="J262" s="2">
-        <v>0</v>
-      </c>
+      <c r="B262" s="4">
+        <v>1</v>
+      </c>
+      <c r="J262" s="2"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="J263" s="2">
-        <v>1</v>
-      </c>
+      <c r="B263" s="4">
+        <v>2</v>
+      </c>
+      <c r="J263" s="2"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="J264" s="2">
-        <v>0</v>
-      </c>
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+      <c r="J264" s="2"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+      <c r="J265" s="2"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
+      <c r="B266" s="4">
+        <v>1</v>
+      </c>
+      <c r="J266" s="2"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
+      <c r="B267" s="4">
+        <v>1</v>
+      </c>
+      <c r="J267" s="2"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="J268" s="2">
-        <v>0</v>
-      </c>
+      <c r="B268" s="4">
+        <v>1</v>
+      </c>
+      <c r="J268" s="2"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="J269" s="2">
-        <v>0</v>
-      </c>
+      <c r="B269" s="4">
+        <v>1</v>
+      </c>
+      <c r="J269" s="2"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="J270" s="2">
-        <v>0</v>
-      </c>
+      <c r="B270" s="4">
+        <v>1</v>
+      </c>
+      <c r="J270" s="2"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="J271" s="2">
-        <v>1</v>
-      </c>
+      <c r="B271" s="4">
+        <v>2</v>
+      </c>
+      <c r="J271" s="2"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="J272" s="2">
-        <v>0</v>
-      </c>
+      <c r="B272" s="4">
+        <v>1</v>
+      </c>
+      <c r="J272" s="2"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="J273" s="2">
-        <v>1</v>
-      </c>
+      <c r="B273" s="4">
+        <v>2</v>
+      </c>
+      <c r="J273" s="2"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="J274" s="2">
-        <v>0</v>
-      </c>
+      <c r="B274" s="4">
+        <v>1</v>
+      </c>
+      <c r="J274" s="2"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="J275" s="2">
+      <c r="B275" s="4">
         <v>0</v>
       </c>
+      <c r="J275" s="2"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="J276" s="2">
-        <v>0</v>
-      </c>
+      <c r="B276" s="4">
+        <v>1</v>
+      </c>
+      <c r="J276" s="2"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="J277" s="2">
-        <v>1</v>
-      </c>
+      <c r="B277" s="4">
+        <v>2</v>
+      </c>
+      <c r="J277" s="2"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="J278" s="2">
-        <v>1</v>
-      </c>
+      <c r="B278" s="4">
+        <v>2</v>
+      </c>
+      <c r="J278" s="2"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="J279" s="2">
-        <v>0</v>
-      </c>
+      <c r="B279" s="4">
+        <v>1</v>
+      </c>
+      <c r="J279" s="2"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="J280" s="2">
-        <v>1</v>
-      </c>
+      <c r="B280" s="4">
+        <v>2</v>
+      </c>
+      <c r="J280" s="2"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="J281" s="2">
-        <v>0</v>
-      </c>
+      <c r="B281" s="4">
+        <v>1</v>
+      </c>
+      <c r="J281" s="2"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="J282" s="2">
-        <v>0</v>
-      </c>
+      <c r="B282" s="4">
+        <v>1</v>
+      </c>
+      <c r="J282" s="2"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="J283" s="2">
-        <v>1</v>
-      </c>
+      <c r="B283" s="4">
+        <v>2</v>
+      </c>
+      <c r="J283" s="2"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="J284" s="2">
-        <v>0</v>
-      </c>
+      <c r="B284" s="4">
+        <v>1</v>
+      </c>
+      <c r="J284" s="2"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="J285" s="2">
+      <c r="B285" s="4">
         <v>0</v>
       </c>
+      <c r="J285" s="2"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="J286" s="2">
-        <v>0</v>
-      </c>
+      <c r="B286" s="4">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="J287" s="2">
-        <v>1</v>
-      </c>
+      <c r="B287" s="4">
+        <v>2</v>
+      </c>
+      <c r="J287" s="2"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="J288" s="2">
-        <v>0</v>
-      </c>
+      <c r="B288" s="4">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="J289" s="2">
-        <v>0</v>
-      </c>
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+      <c r="J289" s="2"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="J290" s="2">
-        <v>0</v>
-      </c>
+      <c r="B290" s="4">
+        <v>1</v>
+      </c>
+      <c r="J290" s="2"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="J291" s="2">
-        <v>0</v>
-      </c>
+      <c r="B291" s="4">
+        <v>1</v>
+      </c>
+      <c r="J291" s="2"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="J292" s="2">
-        <v>0</v>
-      </c>
+      <c r="B292" s="4">
+        <v>1</v>
+      </c>
+      <c r="J292" s="2"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="J293" s="2">
-        <v>0</v>
-      </c>
+      <c r="B293" s="4">
+        <v>1</v>
+      </c>
+      <c r="J293" s="2"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="J294" s="2">
-        <v>1</v>
-      </c>
+      <c r="B294" s="4">
+        <v>2</v>
+      </c>
+      <c r="J294" s="2"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="J295" s="2">
-        <v>0</v>
-      </c>
+      <c r="B295" s="4">
+        <v>1</v>
+      </c>
+      <c r="J295" s="2"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="J296" s="2">
-        <v>1</v>
-      </c>
+      <c r="B296" s="4">
+        <v>2</v>
+      </c>
+      <c r="J296" s="2"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="J297" s="2">
-        <v>0</v>
-      </c>
+      <c r="B297" s="4">
+        <v>1</v>
+      </c>
+      <c r="J297" s="2"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="J298" s="2">
-        <v>0</v>
-      </c>
+      <c r="B298" s="4">
+        <v>1</v>
+      </c>
+      <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="J299" s="2">
-        <v>0</v>
-      </c>
+      <c r="B299" s="4">
+        <v>1</v>
+      </c>
+      <c r="J299" s="2"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="J300" s="2">
-        <v>0</v>
-      </c>
+      <c r="B300" s="4">
+        <v>1</v>
+      </c>
+      <c r="J300" s="2"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="J301" s="2">
-        <v>0</v>
-      </c>
+      <c r="B301" s="4">
+        <v>1</v>
+      </c>
+      <c r="J301" s="2"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="J302" s="2">
-        <v>0</v>
-      </c>
+      <c r="B302" s="4">
+        <v>1</v>
+      </c>
+      <c r="J302" s="2"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-      <c r="J303" s="2">
-        <v>0</v>
-      </c>
+      <c r="B303" s="4">
+        <v>1</v>
+      </c>
+      <c r="J303" s="2"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-      <c r="J304" s="2">
-        <v>1</v>
-      </c>
+      <c r="B304" s="4">
+        <v>2</v>
+      </c>
+      <c r="J304" s="2"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="J305" s="2">
-        <v>0</v>
-      </c>
+      <c r="B305" s="4">
+        <v>1</v>
+      </c>
+      <c r="J305" s="2"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-      <c r="J306" s="2">
-        <v>0</v>
-      </c>
+      <c r="B306" s="4">
+        <v>1</v>
+      </c>
+      <c r="J306" s="2"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-      <c r="J307" s="2">
-        <v>0</v>
-      </c>
+      <c r="B307" s="4">
+        <v>1</v>
+      </c>
+      <c r="J307" s="2"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-      <c r="J308" s="2">
-        <v>0</v>
-      </c>
+      <c r="B308" s="4">
+        <v>1</v>
+      </c>
+      <c r="J308" s="2"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="J309" s="2">
-        <v>0</v>
-      </c>
+      <c r="B309" s="4">
+        <v>1</v>
+      </c>
+      <c r="J309" s="2"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="J310" s="2">
-        <v>0</v>
-      </c>
+      <c r="B310" s="4">
+        <v>1</v>
+      </c>
+      <c r="J310" s="2"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-      <c r="J311" s="2">
-        <v>0</v>
-      </c>
+      <c r="B311" s="4">
+        <v>1</v>
+      </c>
+      <c r="J311" s="2"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="J312" s="2">
-        <v>0</v>
-      </c>
+      <c r="B312" s="4">
+        <v>1</v>
+      </c>
+      <c r="J312" s="2"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="J313" s="2">
-        <v>0</v>
-      </c>
+      <c r="B313" s="4">
+        <v>1</v>
+      </c>
+      <c r="J313" s="2"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="J314" s="2">
-        <v>0</v>
-      </c>
+      <c r="B314" s="4">
+        <v>1</v>
+      </c>
+      <c r="J314" s="2"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-      <c r="J315" s="2">
-        <v>1</v>
-      </c>
+      <c r="B315" s="4">
+        <v>2</v>
+      </c>
+      <c r="J315" s="2"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="J316" s="2">
-        <v>1</v>
-      </c>
+      <c r="B316" s="4">
+        <v>0</v>
+      </c>
+      <c r="J316" s="2"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-      <c r="J317" s="2">
-        <v>0</v>
-      </c>
+      <c r="B317" s="4">
+        <v>1</v>
+      </c>
+      <c r="J317" s="2"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-      <c r="J318" s="2">
-        <v>1</v>
-      </c>
+      <c r="B318" s="4">
+        <v>2</v>
+      </c>
+      <c r="J318" s="2"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-      <c r="J319" s="2">
-        <v>0</v>
-      </c>
+      <c r="B319" s="4">
+        <v>1</v>
+      </c>
+      <c r="J319" s="2"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-      <c r="J320" s="2">
-        <v>1</v>
-      </c>
+      <c r="B320" s="4">
+        <v>2</v>
+      </c>
+      <c r="J320" s="2"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-      <c r="J321" s="2">
-        <v>1</v>
-      </c>
+      <c r="B321" s="4">
+        <v>2</v>
+      </c>
+      <c r="J321" s="2"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-      <c r="J322" s="2">
-        <v>0</v>
-      </c>
+      <c r="B322" s="4">
+        <v>1</v>
+      </c>
+      <c r="J322" s="2"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-      <c r="J323" s="2">
-        <v>0</v>
-      </c>
+      <c r="B323" s="4">
+        <v>1</v>
+      </c>
+      <c r="J323" s="2"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-      <c r="J324" s="2">
-        <v>0</v>
-      </c>
+      <c r="B324" s="4">
+        <v>1</v>
+      </c>
+      <c r="J324" s="2"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-      <c r="J325" s="2">
-        <v>0</v>
-      </c>
+      <c r="B325" s="4">
+        <v>1</v>
+      </c>
+      <c r="J325" s="2"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-      <c r="J326" s="2">
-        <v>0</v>
-      </c>
+      <c r="B326" s="4">
+        <v>1</v>
+      </c>
+      <c r="J326" s="2"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-      <c r="J327" s="2">
-        <v>0</v>
-      </c>
+      <c r="B327" s="4">
+        <v>1</v>
+      </c>
+      <c r="J327" s="2"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-      <c r="J328" s="2">
-        <v>0</v>
-      </c>
+      <c r="B328" s="4">
+        <v>1</v>
+      </c>
+      <c r="J328" s="2"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-      <c r="J329" s="2">
-        <v>1</v>
-      </c>
+      <c r="B329" s="4">
+        <v>2</v>
+      </c>
+      <c r="J329" s="2"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-      <c r="J330" s="2">
-        <v>0</v>
-      </c>
+      <c r="B330" s="4">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-      <c r="J331" s="2">
-        <v>0</v>
-      </c>
+      <c r="B331" s="4">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-      <c r="J332" s="2">
-        <v>1</v>
-      </c>
+      <c r="B332" s="4">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-      <c r="J333" s="2">
-        <v>0</v>
-      </c>
+      <c r="B333" s="4">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-      <c r="J334" s="2">
-        <v>0</v>
-      </c>
+      <c r="B334" s="4">
+        <v>1</v>
+      </c>
+      <c r="J334" s="2"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-      <c r="J335" s="2">
-        <v>0</v>
-      </c>
+      <c r="B335" s="4">
+        <v>1</v>
+      </c>
+      <c r="J335" s="2"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-      <c r="J336" s="2">
-        <v>0</v>
-      </c>
+      <c r="B336" s="4">
+        <v>1</v>
+      </c>
+      <c r="J336" s="2"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-      <c r="J337" s="2">
-        <v>0</v>
-      </c>
+      <c r="B337" s="4">
+        <v>1</v>
+      </c>
+      <c r="J337" s="2"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-      <c r="J338" s="2">
-        <v>0</v>
-      </c>
+      <c r="B338" s="4">
+        <v>1</v>
+      </c>
+      <c r="J338" s="2"/>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-      <c r="J339" s="2">
-        <v>0</v>
-      </c>
+      <c r="B339" s="4">
+        <v>1</v>
+      </c>
+      <c r="J339" s="2"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-      <c r="J340" s="2">
-        <v>1</v>
-      </c>
+      <c r="B340" s="4">
+        <v>2</v>
+      </c>
+      <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-      <c r="J341" s="2">
-        <v>0</v>
-      </c>
+      <c r="B341" s="4">
+        <v>1</v>
+      </c>
+      <c r="J341" s="2"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-      <c r="J342" s="2">
-        <v>0</v>
-      </c>
+      <c r="B342" s="4">
+        <v>2</v>
+      </c>
+      <c r="J342" s="2"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-      <c r="J343" s="2">
-        <v>0</v>
-      </c>
+      <c r="B343" s="4">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-      <c r="J344" s="2">
-        <v>0</v>
-      </c>
+      <c r="B344" s="4">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-      <c r="J345" s="2">
-        <v>0</v>
-      </c>
+      <c r="B345" s="4">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2"/>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-      <c r="J346" s="2">
-        <v>0</v>
-      </c>
+      <c r="B346" s="4">
+        <v>1</v>
+      </c>
+      <c r="J346" s="2"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-      <c r="J347" s="2">
-        <v>0</v>
-      </c>
+      <c r="B347" s="4">
+        <v>1</v>
+      </c>
+      <c r="J347" s="2"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-      <c r="J348" s="2">
-        <v>0</v>
-      </c>
+      <c r="B348" s="4">
+        <v>1</v>
+      </c>
+      <c r="J348" s="2"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-      <c r="J349" s="2">
-        <v>0</v>
-      </c>
+      <c r="B349" s="4">
+        <v>1</v>
+      </c>
+      <c r="J349" s="2"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-      <c r="J350" s="2">
-        <v>0</v>
-      </c>
+      <c r="B350" s="4">
+        <v>1</v>
+      </c>
+      <c r="J350" s="2"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-      <c r="J351" s="2">
-        <v>0</v>
-      </c>
+      <c r="B351" s="4">
+        <v>1</v>
+      </c>
+      <c r="J351" s="2"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-      <c r="J352" s="2">
-        <v>0</v>
-      </c>
+      <c r="B352" s="4">
+        <v>1</v>
+      </c>
+      <c r="J352" s="2"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-      <c r="J353" s="2">
-        <v>0</v>
-      </c>
+      <c r="B353" s="4">
+        <v>1</v>
+      </c>
+      <c r="J353" s="2"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-      <c r="J354" s="2">
-        <v>0</v>
-      </c>
+      <c r="B354" s="4">
+        <v>1</v>
+      </c>
+      <c r="J354" s="2"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-      <c r="J355" s="2">
-        <v>0</v>
-      </c>
+      <c r="B355" s="4">
+        <v>1</v>
+      </c>
+      <c r="J355" s="2"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-      <c r="J356" s="2">
-        <v>0</v>
-      </c>
+      <c r="B356" s="4">
+        <v>1</v>
+      </c>
+      <c r="J356" s="2"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-      <c r="J357" s="2">
-        <v>0</v>
-      </c>
+      <c r="B357" s="4">
+        <v>1</v>
+      </c>
+      <c r="J357" s="2"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-      <c r="J358" s="2">
-        <v>0</v>
-      </c>
+      <c r="B358" s="4">
+        <v>1</v>
+      </c>
+      <c r="J358" s="2"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-      <c r="J359" s="2">
-        <v>0</v>
-      </c>
+      <c r="B359" s="4">
+        <v>1</v>
+      </c>
+      <c r="J359" s="2"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-      <c r="J360" s="2">
-        <v>1</v>
-      </c>
+      <c r="B360" s="4">
+        <v>2</v>
+      </c>
+      <c r="J360" s="2"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-      <c r="J361" s="2">
-        <v>0</v>
-      </c>
+      <c r="B361" s="4">
+        <v>1</v>
+      </c>
+      <c r="J361" s="2"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-      <c r="J362" s="2">
-        <v>0</v>
-      </c>
+      <c r="B362" s="4">
+        <v>1</v>
+      </c>
+      <c r="J362" s="2"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-      <c r="J363" s="2">
-        <v>0</v>
-      </c>
+      <c r="B363" s="4">
+        <v>2</v>
+      </c>
+      <c r="J363" s="2"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-      <c r="J364" s="2">
-        <v>0</v>
-      </c>
+      <c r="B364" s="4">
+        <v>1</v>
+      </c>
+      <c r="J364" s="2"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-      <c r="J365" s="2">
-        <v>0</v>
-      </c>
+      <c r="B365" s="4">
+        <v>1</v>
+      </c>
+      <c r="J365" s="2"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-      <c r="J366" s="2">
-        <v>0</v>
-      </c>
+      <c r="B366" s="4">
+        <v>1</v>
+      </c>
+      <c r="J366" s="2"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-      <c r="J367" s="2">
-        <v>0</v>
-      </c>
+      <c r="B367" s="4">
+        <v>1</v>
+      </c>
+      <c r="J367" s="2"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-      <c r="J368" s="2">
-        <v>0</v>
-      </c>
+      <c r="B368" s="4">
+        <v>1</v>
+      </c>
+      <c r="J368" s="2"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-      <c r="J369" s="2">
-        <v>0</v>
-      </c>
+      <c r="B369" s="4">
+        <v>1</v>
+      </c>
+      <c r="J369" s="2"/>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-      <c r="J370" s="2">
-        <v>0</v>
-      </c>
+      <c r="B370" s="4">
+        <v>1</v>
+      </c>
+      <c r="J370" s="2"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-      <c r="J371" s="2">
-        <v>0</v>
-      </c>
+      <c r="B371" s="4">
+        <v>1</v>
+      </c>
+      <c r="J371" s="2"/>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-      <c r="J372" s="2">
-        <v>0</v>
-      </c>
+      <c r="B372" s="4">
+        <v>1</v>
+      </c>
+      <c r="J372" s="2"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-      <c r="J373" s="2">
-        <v>0</v>
-      </c>
+      <c r="B373" s="4">
+        <v>1</v>
+      </c>
+      <c r="J373" s="2"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-      <c r="J374" s="2">
-        <v>1</v>
-      </c>
+      <c r="B374" s="4">
+        <v>2</v>
+      </c>
+      <c r="J374" s="2"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-      <c r="J375" s="2">
-        <v>1</v>
-      </c>
+      <c r="B375" s="4">
+        <v>2</v>
+      </c>
+      <c r="J375" s="2"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-      <c r="J376" s="2">
-        <v>0</v>
-      </c>
+      <c r="B376" s="4">
+        <v>1</v>
+      </c>
+      <c r="J376" s="2"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-      <c r="J377" s="2">
-        <v>0</v>
-      </c>
+      <c r="B377" s="4">
+        <v>1</v>
+      </c>
+      <c r="J377" s="2"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-      <c r="J378" s="2">
-        <v>0</v>
-      </c>
+      <c r="B378" s="4">
+        <v>1</v>
+      </c>
+      <c r="J378" s="2"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-      <c r="J379" s="2">
-        <v>0</v>
-      </c>
+      <c r="B379" s="4">
+        <v>1</v>
+      </c>
+      <c r="J379" s="2"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-      <c r="J380" s="2">
-        <v>0</v>
-      </c>
+      <c r="B380" s="4">
+        <v>1</v>
+      </c>
+      <c r="J380" s="2"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-      <c r="J381" s="2">
-        <v>0</v>
-      </c>
+      <c r="B381" s="4">
+        <v>1</v>
+      </c>
+      <c r="J381" s="2"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-      <c r="J382" s="2">
-        <v>0</v>
-      </c>
+      <c r="B382" s="4">
+        <v>1</v>
+      </c>
+      <c r="J382" s="2"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-      <c r="J383" s="2">
-        <v>1</v>
-      </c>
+      <c r="B383" s="4">
+        <v>2</v>
+      </c>
+      <c r="J383" s="2"/>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-      <c r="J384" s="2">
-        <v>0</v>
-      </c>
+      <c r="B384" s="4">
+        <v>1</v>
+      </c>
+      <c r="J384" s="2"/>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-      <c r="J385" s="2">
-        <v>0</v>
-      </c>
+      <c r="B385" s="4">
+        <v>1</v>
+      </c>
+      <c r="J385" s="2"/>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-      <c r="J386" s="2">
-        <v>1</v>
-      </c>
+      <c r="B386" s="4">
+        <v>2</v>
+      </c>
+      <c r="J386" s="2"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-      <c r="J387" s="2">
-        <v>1</v>
-      </c>
+      <c r="B387" s="4">
+        <v>2</v>
+      </c>
+      <c r="J387" s="2"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="J388" s="2">
-        <v>0</v>
-      </c>
+      <c r="B388" s="4">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-      <c r="J389" s="2">
-        <v>0</v>
-      </c>
+      <c r="B389" s="4">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2"/>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-      <c r="J390" s="2">
+      <c r="B390" s="4">
         <v>0</v>
       </c>
+      <c r="J390" s="2"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-      <c r="J391" s="2">
-        <v>0</v>
-      </c>
+      <c r="B391" s="4">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-      <c r="J392" s="2">
-        <v>0</v>
-      </c>
+      <c r="B392" s="4">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2"/>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-      <c r="J393" s="2">
-        <v>0</v>
-      </c>
+      <c r="B393" s="4">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-      <c r="J394" s="2">
-        <v>0</v>
-      </c>
+      <c r="B394" s="4">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="J395" s="2">
+      <c r="B395" s="4">
         <v>0</v>
       </c>
+      <c r="J395" s="2"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="J396" s="2">
-        <v>0</v>
-      </c>
+      <c r="B396" s="4">
+        <v>1</v>
+      </c>
+      <c r="J396" s="2"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-      <c r="J397" s="2">
-        <v>1</v>
-      </c>
+      <c r="B397" s="4">
+        <v>2</v>
+      </c>
+      <c r="J397" s="2"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-      <c r="J398" s="2">
-        <v>0</v>
-      </c>
+      <c r="B398" s="4">
+        <v>1</v>
+      </c>
+      <c r="J398" s="2"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="J399" s="2">
-        <v>0</v>
-      </c>
+      <c r="B399" s="4">
+        <v>1</v>
+      </c>
+      <c r="J399" s="2"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="J400" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B400" s="4">
+        <v>1</v>
+      </c>
+      <c r="J400" s="2"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-      <c r="J401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B401" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-      <c r="J402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B402" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-      <c r="J403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B403" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-      <c r="J404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B404" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-      <c r="J405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B405" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-      <c r="J406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B406" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="J407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B407" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-      <c r="J408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B408" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-      <c r="J409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B409" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-      <c r="J410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B410" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-      <c r="J411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B411" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-      <c r="J412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B412" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-      <c r="J413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B413" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-      <c r="J414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B414" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-      <c r="J415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B415" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-      <c r="J416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B416" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-      <c r="J417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B417" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-      <c r="J418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B418" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-      <c r="J419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B419" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-      <c r="J420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B420" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-      <c r="J421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B421" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-      <c r="J422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B422" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-      <c r="J423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B423" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-      <c r="J424">
+      <c r="B424" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-      <c r="J425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B425" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-      <c r="J426">
+      <c r="B426" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-      <c r="J427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B427" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-      <c r="J428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B428" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-      <c r="J429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B429" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-      <c r="J430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B430" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-      <c r="J431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B431" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-      <c r="J432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B432" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-      <c r="J433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B433" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-      <c r="J434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B434" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-      <c r="J435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B435" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-      <c r="J436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B436" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-      <c r="J437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B437" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-      <c r="J438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B438" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-      <c r="J439">
+      <c r="B439" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-      <c r="J440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B440" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-      <c r="J441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B441" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-      <c r="J442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B442" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-      <c r="J443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B443" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-      <c r="J444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B444" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-      <c r="J445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B445" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-      <c r="J446">
+      <c r="B446" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-      <c r="J447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B447" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-      <c r="J448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B448" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-      <c r="J449">
+      <c r="B449" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-      <c r="J450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B450" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-      <c r="J451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B451" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-      <c r="J452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B452" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-      <c r="J453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B453" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-      <c r="J454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B454" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-      <c r="J455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B455" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-      <c r="J456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B456" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-      <c r="J457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B457" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-      <c r="J458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B458" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-      <c r="J459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B459" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-      <c r="J460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B460" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-      <c r="J461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B461" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-      <c r="J462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B462" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-      <c r="J463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B463" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-      <c r="J464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B464" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-      <c r="J465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B465" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-      <c r="J466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B466" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-      <c r="J467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B467" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-      <c r="J468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B468" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-      <c r="J469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B469" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-      <c r="J470">
+      <c r="B470" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-      <c r="J471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B471" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-      <c r="J472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B472" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-      <c r="J473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B473" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-      <c r="J474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B474" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-      <c r="J475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B475" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-      <c r="J476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B476" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-      <c r="J477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B477" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-      <c r="J478">
+      <c r="B478" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-      <c r="J479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B479" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-      <c r="J480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B480" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-      <c r="J481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B481" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-      <c r="J482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B482" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-      <c r="J483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B483" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-      <c r="J484">
+      <c r="B484" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-      <c r="J485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B485" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-      <c r="J486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B486" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-      <c r="J487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B487" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-      <c r="J488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B488" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-      <c r="J489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B489" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-      <c r="J490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B490" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-      <c r="J491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B491" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-      <c r="J492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B492" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-      <c r="J493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B493" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-      <c r="J494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B494" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-      <c r="J495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B495" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-      <c r="J496">
-        <v>0</v>
+      <c r="B496" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-      <c r="J497">
-        <v>0</v>
+      <c r="B497" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-      <c r="J498">
-        <v>1</v>
+      <c r="B498" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-      <c r="J499">
+      <c r="B499" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6161,8 +7025,2190 @@
       <c r="A500" t="s">
         <v>499</v>
       </c>
-      <c r="J500">
+      <c r="B500" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A501" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B501" s="4">
+        <v>1</v>
+      </c>
+      <c r="J501" s="4"/>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A502" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502" s="4">
+        <v>1</v>
+      </c>
+      <c r="J502" s="4"/>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A503" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503" s="4">
+        <v>1</v>
+      </c>
+      <c r="J503" s="4"/>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A504" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B504" s="4">
+        <v>1</v>
+      </c>
+      <c r="J504" s="4"/>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A505" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B505" s="4">
+        <v>1</v>
+      </c>
+      <c r="J505" s="4"/>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A506" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B506" s="4">
+        <v>1</v>
+      </c>
+      <c r="J506" s="4"/>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A507" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B507" s="4">
+        <v>1</v>
+      </c>
+      <c r="J507" s="4"/>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A508" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B508" s="4">
+        <v>1</v>
+      </c>
+      <c r="J508" s="4"/>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A509" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B509" s="4">
+        <v>1</v>
+      </c>
+      <c r="J509" s="4"/>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A510" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B510" s="4">
+        <v>1</v>
+      </c>
+      <c r="J510" s="4"/>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A511" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B511" s="4">
+        <v>1</v>
+      </c>
+      <c r="J511" s="4"/>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A512" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B512" s="4">
+        <v>2</v>
+      </c>
+      <c r="J512" s="4"/>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A513" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B513" s="4">
+        <v>1</v>
+      </c>
+      <c r="J513" s="4"/>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A514" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B514" s="4">
+        <v>2</v>
+      </c>
+      <c r="J514" s="4"/>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A515" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B515" s="4">
+        <v>1</v>
+      </c>
+      <c r="J515" s="4"/>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A516" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B516" s="4">
+        <v>1</v>
+      </c>
+      <c r="J516" s="4"/>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A517" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B517" s="4">
+        <v>1</v>
+      </c>
+      <c r="J517" s="4"/>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A518" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B518" s="4">
+        <v>1</v>
+      </c>
+      <c r="J518" s="4"/>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A519" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B519" s="4">
+        <v>2</v>
+      </c>
+      <c r="J519" s="4"/>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A520" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B520" s="4">
+        <v>1</v>
+      </c>
+      <c r="J520" s="4"/>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A521" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B521" s="4">
+        <v>1</v>
+      </c>
+      <c r="J521" s="4"/>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A522" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B522" s="4">
+        <v>2</v>
+      </c>
+      <c r="J522" s="4"/>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A523" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B523" s="4">
         <v>0</v>
+      </c>
+      <c r="J523" s="4"/>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A524" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B524" s="4">
+        <v>2</v>
+      </c>
+      <c r="J524" s="4"/>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A525" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B525" s="4">
+        <v>1</v>
+      </c>
+      <c r="J525" s="4"/>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A526" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B526" s="4">
+        <v>1</v>
+      </c>
+      <c r="J526" s="4"/>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A527" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B527" s="4">
+        <v>1</v>
+      </c>
+      <c r="J527" s="4"/>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A528" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B528" s="4">
+        <v>1</v>
+      </c>
+      <c r="J528" s="4"/>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A529" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B529" s="4">
+        <v>1</v>
+      </c>
+      <c r="J529" s="4"/>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A530" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B530" s="4">
+        <v>1</v>
+      </c>
+      <c r="J530" s="4"/>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A531" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B531" s="4">
+        <v>1</v>
+      </c>
+      <c r="J531" s="4"/>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A532" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B532" s="4">
+        <v>1</v>
+      </c>
+      <c r="J532" s="4"/>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A533" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B533" s="4">
+        <v>1</v>
+      </c>
+      <c r="J533" s="4"/>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A534" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B534" s="4">
+        <v>1</v>
+      </c>
+      <c r="J534" s="4"/>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A535" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B535" s="4">
+        <v>2</v>
+      </c>
+      <c r="J535" s="4"/>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A536" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B536" s="4">
+        <v>1</v>
+      </c>
+      <c r="J536" s="4"/>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A537" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B537" s="4">
+        <v>1</v>
+      </c>
+      <c r="J537" s="4"/>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A538" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B538" s="4">
+        <v>1</v>
+      </c>
+      <c r="J538" s="4"/>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A539" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B539" s="4">
+        <v>1</v>
+      </c>
+      <c r="J539" s="4"/>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A540" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B540" s="4">
+        <v>1</v>
+      </c>
+      <c r="J540" s="4"/>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A541" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B541" s="4">
+        <v>1</v>
+      </c>
+      <c r="J541" s="4"/>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A542" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B542" s="4">
+        <v>1</v>
+      </c>
+      <c r="J542" s="4"/>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A543" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B543" s="4">
+        <v>1</v>
+      </c>
+      <c r="J543" s="4"/>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A544" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544" s="4">
+        <v>1</v>
+      </c>
+      <c r="J544" s="4"/>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A545" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B545" s="4">
+        <v>1</v>
+      </c>
+      <c r="J545" s="4"/>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A546" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B546" s="4">
+        <v>1</v>
+      </c>
+      <c r="J546" s="4"/>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A547" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B547" s="4">
+        <v>1</v>
+      </c>
+      <c r="J547" s="4"/>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A548" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B548" s="4">
+        <v>1</v>
+      </c>
+      <c r="J548" s="4"/>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A549" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B549" s="4">
+        <v>1</v>
+      </c>
+      <c r="J549" s="4"/>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A550" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B550" s="4">
+        <v>1</v>
+      </c>
+      <c r="J550" s="4"/>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A551" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B551" s="4">
+        <v>1</v>
+      </c>
+      <c r="J551" s="4"/>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A552" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B552" s="4">
+        <v>1</v>
+      </c>
+      <c r="J552" s="4"/>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A553" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B553" s="4">
+        <v>1</v>
+      </c>
+      <c r="J553" s="4"/>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A554" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B554" s="4">
+        <v>1</v>
+      </c>
+      <c r="J554" s="4"/>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A555" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B555" s="4">
+        <v>2</v>
+      </c>
+      <c r="J555" s="4"/>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A556" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B556" s="4">
+        <v>1</v>
+      </c>
+      <c r="J556" s="4"/>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A557" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B557" s="4">
+        <v>1</v>
+      </c>
+      <c r="J557" s="4"/>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A558" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B558" s="4">
+        <v>1</v>
+      </c>
+      <c r="J558" s="4"/>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A559" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B559" s="4">
+        <v>1</v>
+      </c>
+      <c r="J559" s="4"/>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A560" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B560" s="4">
+        <v>1</v>
+      </c>
+      <c r="J560" s="4"/>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A561" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B561" s="4">
+        <v>1</v>
+      </c>
+      <c r="J561" s="4"/>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A562" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B562" s="4">
+        <v>1</v>
+      </c>
+      <c r="J562" s="4"/>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A563" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B563" s="4">
+        <v>1</v>
+      </c>
+      <c r="J563" s="4"/>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A564" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B564" s="4">
+        <v>1</v>
+      </c>
+      <c r="J564" s="4"/>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A565" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B565" s="4">
+        <v>1</v>
+      </c>
+      <c r="J565" s="4"/>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A566" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B566" s="4">
+        <v>1</v>
+      </c>
+      <c r="J566" s="4"/>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A567" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B567" s="4">
+        <v>2</v>
+      </c>
+      <c r="J567" s="4"/>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A568" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B568" s="4">
+        <v>1</v>
+      </c>
+      <c r="J568" s="4"/>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A569" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B569" s="4">
+        <v>1</v>
+      </c>
+      <c r="J569" s="4"/>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A570" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B570" s="4">
+        <v>1</v>
+      </c>
+      <c r="J570" s="4"/>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A571" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B571" s="4">
+        <v>1</v>
+      </c>
+      <c r="J571" s="4"/>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A572" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B572" s="4">
+        <v>1</v>
+      </c>
+      <c r="J572" s="4"/>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A573" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B573" s="4">
+        <v>1</v>
+      </c>
+      <c r="J573" s="4"/>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A574" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B574" s="4">
+        <v>1</v>
+      </c>
+      <c r="J574" s="4"/>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A575" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B575" s="4">
+        <v>1</v>
+      </c>
+      <c r="J575" s="4"/>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A576" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B576" s="4">
+        <v>1</v>
+      </c>
+      <c r="J576" s="4"/>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A577" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B577" s="4">
+        <v>1</v>
+      </c>
+      <c r="J577" s="4"/>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A578" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B578" s="4">
+        <v>1</v>
+      </c>
+      <c r="J578" s="4"/>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A579" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B579" s="4">
+        <v>1</v>
+      </c>
+      <c r="J579" s="4"/>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A580" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B580" s="4">
+        <v>1</v>
+      </c>
+      <c r="J580" s="4"/>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A581" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B581" s="4">
+        <v>1</v>
+      </c>
+      <c r="J581" s="4"/>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A582" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B582" s="4">
+        <v>2</v>
+      </c>
+      <c r="J582" s="4"/>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A583" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B583" s="4">
+        <v>1</v>
+      </c>
+      <c r="J583" s="4"/>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A584" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B584" s="4">
+        <v>1</v>
+      </c>
+      <c r="J584" s="4"/>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A585" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B585" s="4">
+        <v>1</v>
+      </c>
+      <c r="J585" s="4"/>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A586" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B586" s="4">
+        <v>1</v>
+      </c>
+      <c r="J586" s="4"/>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A587" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B587" s="4">
+        <v>1</v>
+      </c>
+      <c r="J587" s="4"/>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A588" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B588" s="4">
+        <v>1</v>
+      </c>
+      <c r="J588" s="4"/>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A589" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B589" s="4">
+        <v>1</v>
+      </c>
+      <c r="J589" s="4"/>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A590" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B590" s="4">
+        <v>0</v>
+      </c>
+      <c r="J590" s="4"/>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A591" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B591" s="4">
+        <v>1</v>
+      </c>
+      <c r="J591" s="4"/>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A592" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B592" s="4">
+        <v>1</v>
+      </c>
+      <c r="J592" s="4"/>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A593" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B593" s="4">
+        <v>1</v>
+      </c>
+      <c r="J593" s="4"/>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A594" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B594" s="4">
+        <v>1</v>
+      </c>
+      <c r="J594" s="4"/>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A595" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B595" s="4">
+        <v>1</v>
+      </c>
+      <c r="J595" s="4"/>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A596" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B596" s="4">
+        <v>1</v>
+      </c>
+      <c r="J596" s="4"/>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A597" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B597" s="4">
+        <v>1</v>
+      </c>
+      <c r="J597" s="4"/>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A598" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B598" s="4">
+        <v>1</v>
+      </c>
+      <c r="J598" s="4"/>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A599" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B599" s="4">
+        <v>2</v>
+      </c>
+      <c r="J599" s="4"/>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A600" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B600" s="4">
+        <v>1</v>
+      </c>
+      <c r="J600" s="4"/>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A601" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B601" s="4">
+        <v>1</v>
+      </c>
+      <c r="J601" s="4"/>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A602" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B602" s="4">
+        <v>1</v>
+      </c>
+      <c r="J602" s="4"/>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A603" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B603" s="4">
+        <v>1</v>
+      </c>
+      <c r="J603" s="4"/>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A604" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B604" s="4">
+        <v>1</v>
+      </c>
+      <c r="J604" s="4"/>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A605" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B605" s="4">
+        <v>1</v>
+      </c>
+      <c r="J605" s="4"/>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A606" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B606" s="4">
+        <v>1</v>
+      </c>
+      <c r="J606" s="4"/>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A607" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B607" s="4">
+        <v>2</v>
+      </c>
+      <c r="J607" s="4"/>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A608" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B608" s="4">
+        <v>1</v>
+      </c>
+      <c r="J608" s="4"/>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A609" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B609" s="4">
+        <v>1</v>
+      </c>
+      <c r="J609" s="4"/>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A610" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B610" s="4">
+        <v>1</v>
+      </c>
+      <c r="J610" s="4"/>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A611" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B611" s="4">
+        <v>1</v>
+      </c>
+      <c r="J611" s="4"/>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A612" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B612" s="4">
+        <v>1</v>
+      </c>
+      <c r="J612" s="4"/>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A613" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B613" s="4">
+        <v>2</v>
+      </c>
+      <c r="J613" s="4"/>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A614" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B614" s="4">
+        <v>1</v>
+      </c>
+      <c r="J614" s="4"/>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A615" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B615" s="4">
+        <v>2</v>
+      </c>
+      <c r="J615" s="4"/>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A616" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B616" s="4">
+        <v>1</v>
+      </c>
+      <c r="J616" s="4"/>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A617" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B617" s="4">
+        <v>2</v>
+      </c>
+      <c r="J617" s="4"/>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A618" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B618" s="4">
+        <v>1</v>
+      </c>
+      <c r="J618" s="4"/>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A619" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B619" s="4">
+        <v>1</v>
+      </c>
+      <c r="J619" s="4"/>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A620" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B620" s="4">
+        <v>1</v>
+      </c>
+      <c r="J620" s="4"/>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A621" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B621" s="4">
+        <v>2</v>
+      </c>
+      <c r="J621" s="4"/>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A622" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B622" s="4">
+        <v>1</v>
+      </c>
+      <c r="J622" s="4"/>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A623" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B623" s="4">
+        <v>1</v>
+      </c>
+      <c r="J623" s="4"/>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A624" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B624" s="4">
+        <v>0</v>
+      </c>
+      <c r="J624" s="4"/>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A625" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B625" s="4">
+        <v>1</v>
+      </c>
+      <c r="J625" s="4"/>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A626" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B626" s="4">
+        <v>1</v>
+      </c>
+      <c r="J626" s="4"/>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A627" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B627" s="4">
+        <v>1</v>
+      </c>
+      <c r="J627" s="4"/>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A628" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B628" s="4">
+        <v>1</v>
+      </c>
+      <c r="J628" s="4"/>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A629" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B629" s="4">
+        <v>1</v>
+      </c>
+      <c r="J629" s="4"/>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A630" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B630" s="4">
+        <v>0</v>
+      </c>
+      <c r="J630" s="4"/>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A631" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B631" s="4">
+        <v>1</v>
+      </c>
+      <c r="J631" s="4"/>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A632" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B632" s="4">
+        <v>1</v>
+      </c>
+      <c r="J632" s="4"/>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A633" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B633" s="4">
+        <v>1</v>
+      </c>
+      <c r="J633" s="4"/>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A634" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B634" s="4">
+        <v>1</v>
+      </c>
+      <c r="J634" s="4"/>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A635" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B635" s="4">
+        <v>1</v>
+      </c>
+      <c r="J635" s="4"/>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A636" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B636" s="4">
+        <v>1</v>
+      </c>
+      <c r="J636" s="4"/>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A637" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B637" s="4">
+        <v>1</v>
+      </c>
+      <c r="J637" s="4"/>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A638" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B638" s="4">
+        <v>1</v>
+      </c>
+      <c r="J638" s="4"/>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A639" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B639" s="4">
+        <v>1</v>
+      </c>
+      <c r="J639" s="4"/>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A640" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B640" s="4">
+        <v>1</v>
+      </c>
+      <c r="J640" s="4"/>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A641" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B641" s="4">
+        <v>1</v>
+      </c>
+      <c r="J641" s="4"/>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A642" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B642" s="4">
+        <v>1</v>
+      </c>
+      <c r="J642" s="4"/>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A643" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B643" s="4">
+        <v>1</v>
+      </c>
+      <c r="J643" s="4"/>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A644" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B644" s="4">
+        <v>1</v>
+      </c>
+      <c r="J644" s="4"/>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A645" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B645" s="4">
+        <v>1</v>
+      </c>
+      <c r="J645" s="4"/>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A646" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B646" s="4">
+        <v>0</v>
+      </c>
+      <c r="J646" s="4"/>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A647" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B647" s="4">
+        <v>1</v>
+      </c>
+      <c r="J647" s="4"/>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A648" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B648" s="4">
+        <v>1</v>
+      </c>
+      <c r="J648" s="4"/>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A649" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B649" s="4">
+        <v>1</v>
+      </c>
+      <c r="J649" s="4"/>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A650" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B650" s="4">
+        <v>1</v>
+      </c>
+      <c r="J650" s="4"/>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A651" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B651" s="4">
+        <v>1</v>
+      </c>
+      <c r="J651" s="4"/>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A652" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B652" s="4">
+        <v>1</v>
+      </c>
+      <c r="J652" s="4"/>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A653" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B653" s="4">
+        <v>1</v>
+      </c>
+      <c r="J653" s="4"/>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A654" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B654" s="4">
+        <v>1</v>
+      </c>
+      <c r="J654" s="4"/>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A655" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B655" s="4">
+        <v>1</v>
+      </c>
+      <c r="J655" s="4"/>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A656" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B656" s="4">
+        <v>2</v>
+      </c>
+      <c r="J656" s="4"/>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A657" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B657" s="4">
+        <v>1</v>
+      </c>
+      <c r="J657" s="4"/>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A658" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B658" s="4">
+        <v>1</v>
+      </c>
+      <c r="J658" s="4"/>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A659" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B659" s="4">
+        <v>1</v>
+      </c>
+      <c r="J659" s="4"/>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A660" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B660" s="4">
+        <v>1</v>
+      </c>
+      <c r="J660" s="4"/>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A661" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B661" s="4">
+        <v>1</v>
+      </c>
+      <c r="J661" s="4"/>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A662" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B662" s="4">
+        <v>1</v>
+      </c>
+      <c r="J662" s="4"/>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A663" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B663" s="4">
+        <v>1</v>
+      </c>
+      <c r="J663" s="4"/>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A664" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B664" s="4">
+        <v>1</v>
+      </c>
+      <c r="J664" s="4"/>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A665" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B665" s="4">
+        <v>2</v>
+      </c>
+      <c r="J665" s="4"/>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A666" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B666" s="4">
+        <v>0</v>
+      </c>
+      <c r="J666" s="4"/>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A667" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B667" s="4">
+        <v>1</v>
+      </c>
+      <c r="J667" s="4"/>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A668" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B668" s="4">
+        <v>1</v>
+      </c>
+      <c r="J668" s="4"/>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A669" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B669" s="4">
+        <v>1</v>
+      </c>
+      <c r="J669" s="4"/>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A670" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B670" s="4">
+        <v>2</v>
+      </c>
+      <c r="J670" s="4"/>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A671" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B671" s="4">
+        <v>1</v>
+      </c>
+      <c r="J671" s="4"/>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A672" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B672" s="4">
+        <v>1</v>
+      </c>
+      <c r="J672" s="4"/>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A673" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B673" s="4">
+        <v>1</v>
+      </c>
+      <c r="J673" s="4"/>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A674" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B674" s="4">
+        <v>1</v>
+      </c>
+      <c r="J674" s="4"/>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A675" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B675" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A676" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B676" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A677" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B677" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A678" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B678" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A679" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B679" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A680" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B680" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A681" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B681" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A682" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B682" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A683" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B683" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A684" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B684" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A685" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B685" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A686" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B686" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A687" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B687" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A688" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B688" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B689" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B690" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B691" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B692" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B693" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B694" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B695" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B696" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B697" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B698" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B699" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B700" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B701" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B702" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B703" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B704" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B705" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B706" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B707" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B708" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B709" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B710" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B711" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B712" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B713" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B714" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B715" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B716" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B717" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B718" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B719" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B720" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B721" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B722" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B723" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B724" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B725" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B726" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B727" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B728" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B729" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B730" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B731" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B732" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B733" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B734" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B735" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B736" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B737" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B738" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B739" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B740" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B741" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B742" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B743" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B744" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B745" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B746" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B747" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B748" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B749" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B750" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>667</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
